--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value685.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value685.xlsx
@@ -354,7 +354,7 @@
         <v>2.975074032038876</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.4762191056843215</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value685.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value685.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.822170176671516</v>
+        <v>1.452439785003662</v>
       </c>
       <c r="B1">
-        <v>2.975074032038876</v>
+        <v>1.611706137657166</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.644370198249817</v>
       </c>
       <c r="D1">
-        <v>0.4762191056843215</v>
+        <v>2.05788779258728</v>
       </c>
       <c r="E1">
-        <v>0.3302775955037748</v>
+        <v>3.104574203491211</v>
       </c>
     </row>
   </sheetData>
